--- a/项目研发文档/系统数据字典.xlsx
+++ b/项目研发文档/系统数据字典.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lby\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unnamed\Documents\WXWork\1688850202556935\Cache\File\2018-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC47F36-0C61-44F0-AAF7-1B64BE018422}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{71C90B98-D402-490E-B09E-A9E55B7B793A}"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,13 +431,65 @@
   </si>
   <si>
     <t>用来标识每一个设置记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员向全体玩家发送的公告的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员向全体玩家发送的公告的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串，占50个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串，占256个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,12 +538,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,585 +864,634 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC655AE-E312-4B60-B9A6-1B46B5F59A0F}">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s">
-        <v>98</v>
-      </c>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>